--- a/TestData/LMS TestData.xlsx
+++ b/TestData/LMS TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>User Name</t>
   </si>
@@ -426,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
@@ -453,37 +453,37 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>123</v>
+      </c>
+      <c r="B3" s="2">
+        <v>123</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
-        <v>123</v>
-      </c>
-      <c r="B4" s="2">
-        <v>123</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -513,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
